--- a/same_n/methods_coefficients/eight_k_same_n.xlsx
+++ b/same_n/methods_coefficients/eight_k_same_n.xlsx
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -166,8 +166,24 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,20 +192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,15 +210,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -219,24 +229,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,7 +548,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +843,7 @@
       <c r="G10" s="3">
         <v>687.51230889932617</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1145.5416149974806</v>
       </c>
       <c r="I10" s="3">
@@ -843,10 +852,7 @@
       <c r="J10" s="3">
         <v>354.27865263942437</v>
       </c>
-      <c r="N10" s="7">
-        <f>MAX(B10:J10)</f>
-        <v>1145.5416149974806</v>
-      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -876,13 +882,10 @@
       <c r="I11" s="3">
         <v>901.37587969568028</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>5656.7679193343347</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" ref="N11:N15" si="0">MAX(B11:J11)</f>
-        <v>5656.7679193343347</v>
-      </c>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -912,13 +915,10 @@
       <c r="I12" s="3">
         <v>828.507460450091</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>3733.6520006685587</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
-        <v>3733.6520006685587</v>
-      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -948,13 +948,10 @@
       <c r="I13" s="3">
         <v>802.40830408119677</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>3305.0457672625503</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" si="0"/>
-        <v>3305.0457672625503</v>
-      </c>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -987,10 +984,7 @@
       <c r="J14" s="3">
         <v>673.10229793862391</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="0"/>
-        <v>765.67448034711595</v>
-      </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1011,7 +1005,7 @@
       <c r="F15" s="3">
         <v>579.33289664069594</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>729.73229367786791</v>
       </c>
       <c r="H15" s="3">
@@ -1023,10 +1017,7 @@
       <c r="J15" s="3">
         <v>573.89547633978441</v>
       </c>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>729.73229367786791</v>
-      </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1156,7 +1147,7 @@
       <c r="G20" s="2">
         <v>0.61240772805930732</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="8">
         <v>0.53423530780058781</v>
       </c>
       <c r="I20" s="2">
@@ -1252,7 +1243,7 @@
       <c r="G23" s="2">
         <v>0.59106721971620679</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="8">
         <v>0.44656985949978811</v>
       </c>
       <c r="I23" s="2">
@@ -1326,7 +1317,7 @@
       <c r="G26" s="2">
         <v>0.76816926257045359</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="8">
         <v>0.92781762692842129</v>
       </c>
       <c r="I26" s="2">
@@ -1358,7 +1349,7 @@
       <c r="G27" s="2">
         <v>0.74544903220905401</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="8">
         <v>0.89908452637719849</v>
       </c>
       <c r="I27" s="2">
@@ -1390,7 +1381,7 @@
       <c r="G28" s="2">
         <v>0.72909480650859071</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="8">
         <v>0.8771756175835147</v>
       </c>
       <c r="I28" s="2">
@@ -1422,7 +1413,7 @@
       <c r="G29" s="2">
         <v>0.72305527561690142</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="8">
         <v>0.87132194320002443</v>
       </c>
       <c r="I29" s="2">
@@ -1454,7 +1445,7 @@
       <c r="G30" s="2">
         <v>0.77319762277401538</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="8">
         <v>0.81817264984758531</v>
       </c>
       <c r="I30" s="2">
@@ -1486,7 +1477,7 @@
       <c r="G31" s="2">
         <v>0.74665300283571323</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="8">
         <v>0.78086794324022268</v>
       </c>
       <c r="I31" s="2">
